--- a/flows/HYDB_fund_flow_data.xlsx
+++ b/flows/HYDB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1668"/>
+  <dimension ref="A1:B1686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17115,6 +17115,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1672" t="n">
+        <v>6.935415</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1674" t="n">
+        <v>11.5375</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1675" t="n">
+        <v>2.307725</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1678" t="n">
+        <v>6.902955</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1679" t="n">
+        <v>13.81422</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1681" t="n">
+        <v>4.61953</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1684" t="n">
+        <v>4.62761</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1686" t="n">
+        <v>-69.2106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
